--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/最高收益-主板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易分析/最高收益-主板.xlsx
@@ -2488,10 +2488,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2557,7 +2557,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2571,7 +2586,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2580,28 +2595,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2616,25 +2609,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2643,6 +2627,51 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2658,21 +2687,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2680,21 +2695,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2782,13 +2782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2800,13 +2794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,13 +2812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,7 +2848,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2854,55 +2926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2914,7 +2938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,31 +2950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,7 +2962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2994,23 +2994,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3030,17 +3015,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,15 +3050,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3080,11 +3059,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3093,148 +3093,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3702,11 +3702,11 @@
   <dimension ref="A1:AN165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AK125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AK110" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM128" sqref="AM128"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118:AN118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
